--- a/tables/carbonTableNewGrouping.xlsx
+++ b/tables/carbonTableNewGrouping.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gilesknight/Documents/GitHub/aed-science/tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6936917-F03D-714B-B6F0-7B64C7F2B169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027A6B7-4691-F446-BD82-651EC851F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31620" yWindow="-1020" windowWidth="33860" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="27980" windowHeight="27220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
     <sheet name="Sed flux" sheetId="2" r:id="rId2"/>
     <sheet name="aed_carbon" sheetId="3" r:id="rId3"/>
+    <sheet name="aed_oxygen" sheetId="4" r:id="rId4"/>
+    <sheet name="aed_noncohesive" sheetId="5" r:id="rId5"/>
+    <sheet name="aed_tracer" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -95,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="625">
   <si>
     <t>Oxygen</t>
   </si>
@@ -1459,18 +1461,9 @@
     <t>CAR_pH</t>
   </si>
   <si>
-    <t>dissolved inorganic carbon</t>
-  </si>
-  <si>
     <t>float</t>
   </si>
   <si>
-    <t>methane</t>
-  </si>
-  <si>
-    <t>pH value</t>
-  </si>
-  <si>
     <t>Diagnostics</t>
   </si>
   <si>
@@ -1489,33 +1482,12 @@
     <t>CAR_sed_ch4</t>
   </si>
   <si>
-    <t>partial pressure of CO2 in water</t>
-  </si>
-  <si>
     <t>methane oxidation rate</t>
   </si>
   <si>
-    <t>CO2 exchange across sediment/water interface</t>
-  </si>
-  <si>
-    <t>CH4 exchange across sediment/water interface</t>
-  </si>
-  <si>
-    <t>CO2 exchange across atm/water interface</t>
-  </si>
-  <si>
-    <t>CH4 exchange across atm/water interface</t>
-  </si>
-  <si>
     <t>atm</t>
   </si>
   <si>
-    <t>mmol C/m3/day</t>
-  </si>
-  <si>
-    <t>mmol C/m2/day</t>
-  </si>
-  <si>
     <t>0 - 5000</t>
   </si>
   <si>
@@ -1531,27 +1503,12 @@
     <t>dic_initial</t>
   </si>
   <si>
-    <t>sediment CO2 flux</t>
-  </si>
-  <si>
-    <t>half-saturation oxygen concentration controlling CO2 flux</t>
-  </si>
-  <si>
-    <t>Arrhenius temperature multiplier for sediment CO2 flux</t>
-  </si>
-  <si>
     <t>pH_initial</t>
   </si>
   <si>
-    <t>initial pH values</t>
-  </si>
-  <si>
     <t>atmco2</t>
   </si>
   <si>
-    <t>atmospheric CO2 concentration</t>
-  </si>
-  <si>
     <t>average ionic strength of the water column</t>
   </si>
   <si>
@@ -1561,36 +1518,18 @@
     <t>ch4_initial</t>
   </si>
   <si>
-    <t>initial CH4 values</t>
-  </si>
-  <si>
-    <t>maximum reaction rate of CH4 oxidatin @ 20C</t>
-  </si>
-  <si>
-    <t>half-saturation oxygen concentration for CH4 oxidation</t>
-  </si>
-  <si>
     <t>Arrhenius temperature multiplier for CH4 oxidation</t>
   </si>
   <si>
     <t>Fsed_ch4</t>
   </si>
   <si>
-    <t>sediment CH4 flux</t>
-  </si>
-  <si>
     <t>Ksed_ch4</t>
   </si>
   <si>
-    <t>half-saturation oxygen concentration controlling CH4 flux</t>
-  </si>
-  <si>
     <t>theta_sed_ch4</t>
   </si>
   <si>
-    <t>Arrhenius temperature multiplier for sediment CH4 flux</t>
-  </si>
-  <si>
     <t>methane_reactant_variable</t>
   </si>
   <si>
@@ -1609,9 +1548,6 @@
     <t>atmch4</t>
   </si>
   <si>
-    <t>atmospheric CH4 concentration</t>
-  </si>
-  <si>
     <t>0 - 200</t>
   </si>
   <si>
@@ -1636,45 +1572,12 @@
     <t>ch4_piston_model</t>
   </si>
   <si>
-    <t>carbon_pco2_link</t>
-  </si>
-  <si>
-    <t>CAR_pCO2</t>
-  </si>
-  <si>
     <t>simCH4ebb</t>
   </si>
   <si>
-    <t>Fsed_ch4_ebb</t>
-  </si>
-  <si>
-    <t>1: Haltafall; 2: Butler; 0: aed2_geochem</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
-    <t>0 - 2</t>
-  </si>
-  <si>
-    <t>selection of air/water CO2 flux velocity method</t>
-  </si>
-  <si>
-    <t>selection of air/water CH4 flux velocity method</t>
-  </si>
-  <si>
-    <t>option to activate CH4 ebullition</t>
-  </si>
-  <si>
-    <t>rate of CH4 ebullition</t>
-  </si>
-  <si>
-    <t>1 - 5</t>
-  </si>
-  <si>
-    <t>developed for Queensland Rivers</t>
-  </si>
-  <si>
     <t>OXY_oxy</t>
   </si>
   <si>
@@ -1684,9 +1587,6 @@
     <t>1 - 9</t>
   </si>
   <si>
-    <t xml:space="preserve">selection of pCO2 model algorithms </t>
-  </si>
-  <si>
     <t>selection of total alkalinity model algorithms</t>
   </si>
   <si>
@@ -1702,9 +1602,6 @@
     <t>logical</t>
   </si>
   <si>
-    <t>ox</t>
-  </si>
-  <si>
     <t>F_{sed}^{dic}</t>
   </si>
   <si>
@@ -1729,21 +1626,12 @@
     <t>SDF_Fsed_ch4</t>
   </si>
   <si>
-    <t>mmol C/m2/s</t>
-  </si>
-  <si>
-    <t>mmol O_2/m^3</t>
-  </si>
-  <si>
     <t>diag_level = 0+</t>
   </si>
   <si>
     <t>diag_level = 2+</t>
   </si>
   <si>
-    <t>DIC_{t=0}</t>
-  </si>
-  <si>
     <t>Parameter</t>
   </si>
   <si>
@@ -1753,12 +1641,6 @@
     <t>\mathbf{F}_{sed}^{ch4}</t>
   </si>
   <si>
-    <t>\mathbf{F}_{atm}^{dic}</t>
-  </si>
-  <si>
-    <t>\mathbf{F}_{atm}^{ch4}</t>
-  </si>
-  <si>
     <t>\mathbf{pCO_2}</t>
   </si>
   <si>
@@ -1774,15 +1656,6 @@
     <t>\mathbf{O_2}</t>
   </si>
   <si>
-    <t>Read and written as /day, but internally used as /s</t>
-  </si>
-  <si>
-    <t>dissolved oxygen</t>
-  </si>
-  <si>
-    <t>pH_{t=0}</t>
-  </si>
-  <si>
     <t>\theta_{sed}^{dic}</t>
   </si>
   <si>
@@ -1795,9 +1668,6 @@
     <t>I</t>
   </si>
   <si>
-    <t>CH_{4-t=0}</t>
-  </si>
-  <si>
     <t>R_{ox}^{ch4}</t>
   </si>
   <si>
@@ -1849,12 +1719,6 @@
     <t xml:space="preserve"> ch4_bub_ws</t>
   </si>
   <si>
-    <t xml:space="preserve"> maxMPBProdn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IkMPB</t>
-  </si>
-  <si>
     <t>\Theta_{ch4}^{ebullition}</t>
   </si>
   <si>
@@ -1867,12 +1731,6 @@
     <t>\Theta_{co2}^{piston}</t>
   </si>
   <si>
-    <t>initial DIC cooncentration</t>
-  </si>
-  <si>
-    <t>sediment CO2 flux at 20C</t>
-  </si>
-  <si>
     <t>K_{sed-dic}^{O_2}</t>
   </si>
   <si>
@@ -1894,7 +1752,334 @@
     <t>Methane oxidation</t>
   </si>
   <si>
-    <t>see Chapter X</t>
+    <t>aed_oxygen</t>
+  </si>
+  <si>
+    <t>0 - 500</t>
+  </si>
+  <si>
+    <t>SDF_Fsed_oxy</t>
+  </si>
+  <si>
+    <t>OXY_sat</t>
+  </si>
+  <si>
+    <t>0-200</t>
+  </si>
+  <si>
+    <t>OXY_sed_oxy</t>
+  </si>
+  <si>
+    <t>OXY_atm_oxy_flux</t>
+  </si>
+  <si>
+    <t>diag_level = 9+</t>
+  </si>
+  <si>
+    <t>oxy_initial</t>
+  </si>
+  <si>
+    <t>Fsed_oxy_variable</t>
+  </si>
+  <si>
+    <t>oxy_piston_model</t>
+  </si>
+  <si>
+    <t>\Theta_{oxy}^{piston}</t>
+  </si>
+  <si>
+    <t>selection of air/water $O_2$ flux velocity method</t>
+  </si>
+  <si>
+    <t>oxy_min</t>
+  </si>
+  <si>
+    <t>oxy_max</t>
+  </si>
+  <si>
+    <t>F_{sed}^{oxy}</t>
+  </si>
+  <si>
+    <t>\theta_{sed}^{oxy}</t>
+  </si>
+  <si>
+    <t>`SDF_Fsed_oxy`</t>
+  </si>
+  <si>
+    <t>\mathbf{F}_{sed}^{oxy}</t>
+  </si>
+  <si>
+    <t>\mathbf{O_2^{sat}}</t>
+  </si>
+  <si>
+    <t>\mathbf{F}_{atm}^{oxy}</t>
+  </si>
+  <si>
+    <t>variable name to link to for spatially resolved sediment zones</t>
+  </si>
+  <si>
+    <t>-300 - 300</t>
+  </si>
+  <si>
+    <t>optional limitier</t>
+  </si>
+  <si>
+    <t>Arrhenius temperature multiplier for sediment $O_2$ flux</t>
+  </si>
+  <si>
+    <t>sediment $O_2$ flux at 20C</t>
+  </si>
+  <si>
+    <t>initial $O_2$ concentration</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>optional link to enable  spatially resolved fluxes</t>
+  </si>
+  <si>
+    <t>oxygen saturation</t>
+  </si>
+  <si>
+    <t>$O_2$ exchange across atm-water interface</t>
+  </si>
+  <si>
+    <t>$O_2$ exchange across sediment-water interface</t>
+  </si>
+  <si>
+    <t>O_2\rfloor_{min}</t>
+  </si>
+  <si>
+    <t>minimum $O_2$ concentration</t>
+  </si>
+  <si>
+    <t>maximum $O_2$ concentration</t>
+  </si>
+  <si>
+    <t>1.0 - 1.2</t>
+  </si>
+  <si>
+    <t>O_2\rceil^{max}</t>
+  </si>
+  <si>
+    <t>half-saturation oxygen conc. controlling $O_2$ flux</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>600</t>
+  </si>
+  <si>
+    <t>O_2|_{t=0}</t>
+  </si>
+  <si>
+    <t>OXY_atm_oxy_exch3d</t>
+  </si>
+  <si>
+    <t>\mathbf{\check{f}}_{atm}^{oxy}</t>
+  </si>
+  <si>
+    <t>see options in the [Gas Transfer](#GAS) section</t>
+  </si>
+  <si>
+    <t>read and output as /day, but internally used as /s</t>
+  </si>
+  <si>
+    <t>sediment $O_2$ flux</t>
+  </si>
+  <si>
+    <t>\%</t>
+  </si>
+  <si>
+    <t>mmol\:O_2/m^3</t>
+  </si>
+  <si>
+    <t>mmol \:O_2/m^2/s</t>
+  </si>
+  <si>
+    <t>mmol\: O_2/m^2/d</t>
+  </si>
+  <si>
+    <t>mmol \:O_2/m^2/d</t>
+  </si>
+  <si>
+    <t>mmol \:O_2/m^3/d</t>
+  </si>
+  <si>
+    <t>mmol\: O_2/m^3</t>
+  </si>
+  <si>
+    <t>dissolved oxygen concentration</t>
+  </si>
+  <si>
+    <t>K_{sod}^{O_2}</t>
+  </si>
+  <si>
+    <t>DIC|_{t=0}</t>
+  </si>
+  <si>
+    <t>dissolved inorganic carbon concentration</t>
+  </si>
+  <si>
+    <t>dissolved methane concentration</t>
+  </si>
+  <si>
+    <t>sediment $CH_4$ flux</t>
+  </si>
+  <si>
+    <t>$pH$ value</t>
+  </si>
+  <si>
+    <t>partial pressure of $CO_2$ in water</t>
+  </si>
+  <si>
+    <t>$CO_2$ exchange across sediment-water interface</t>
+  </si>
+  <si>
+    <t>$CH_4$ exchange across sediment-water interface</t>
+  </si>
+  <si>
+    <t>$CO_2$ exchange across atm-water interface</t>
+  </si>
+  <si>
+    <t>$CH_4$ exchange across atm-water interface</t>
+  </si>
+  <si>
+    <t>initial $DIC$ cooncentration</t>
+  </si>
+  <si>
+    <t>initial $pH$ values</t>
+  </si>
+  <si>
+    <t>initial $CH_4$ values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selection of $pCO_2$ model algorithms </t>
+  </si>
+  <si>
+    <t>atmospheric $CO_2$ concentration</t>
+  </si>
+  <si>
+    <t>atmospheric $CH_4$ concentration</t>
+  </si>
+  <si>
+    <t>selection of air-water $CO_2$ flux velocity method</t>
+  </si>
+  <si>
+    <t>selection of air-water $CH_4$ flux velocity method</t>
+  </si>
+  <si>
+    <t>maximum reaction rate of $CH_4$ oxidatin @ 20C</t>
+  </si>
+  <si>
+    <t>sediment $CO_2$ flux @ 20C</t>
+  </si>
+  <si>
+    <t>Arrhenius temperature multiplier for sediment $CO_2$ flux</t>
+  </si>
+  <si>
+    <t>mmol\: C/m^3</t>
+  </si>
+  <si>
+    <t>mmol\: C/m^2/s</t>
+  </si>
+  <si>
+    <t>mmol\: C/m^3/d</t>
+  </si>
+  <si>
+    <t>mmol\: C/m^2/d</t>
+  </si>
+  <si>
+    <t>rate of $CH_4$ ebullition</t>
+  </si>
+  <si>
+    <t>half-saturation oxygen conc. controlling $CO_2$ flux</t>
+  </si>
+  <si>
+    <t>half-saturation oxygen conc. controlling $CH_4$ flux</t>
+  </si>
+  <si>
+    <t>half-saturation $O_2$ conc. for $CH_4$ oxidation</t>
+  </si>
+  <si>
+    <t>Arrhenius temperature multiplier for sediment $CH_4$ flux</t>
+  </si>
+  <si>
+    <t>option to activate $CH_4$ ebullition</t>
+  </si>
+  <si>
+    <t>empirical relations developed for Queensland Rivers</t>
+  </si>
+  <si>
+    <t>1: CO2SYS; 2: Butler; 0: aed_geochem</t>
+  </si>
+  <si>
+    <t>pH|_{t=0}</t>
+  </si>
+  <si>
+    <t>CH_4|_{t=0}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{sed}^{dic}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{sed}^{ch4}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{atm}^{dic}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{atm}^{ch4}</t>
+  </si>
+  <si>
+    <t>CAR_ch4ox</t>
+  </si>
+  <si>
+    <t>Fsed_dic_variable</t>
+  </si>
+  <si>
+    <t>Fsed_ch4_variable</t>
+  </si>
+  <si>
+    <t>Fsed_ebb_variable</t>
+  </si>
+  <si>
+    <t>dissolved sediment $CO_2$ flux</t>
+  </si>
+  <si>
+    <t>dissolved sediment $CH_4$ flux</t>
+  </si>
+  <si>
+    <t>activated when `simDIC=T`</t>
+  </si>
+  <si>
+    <t>`simDIC` activated by setting `dic_initial` $\gt -9999$</t>
+  </si>
+  <si>
+    <t>optional for methane oxidation, via `methane_reactant_variable`</t>
+  </si>
+  <si>
+    <t>required for sediment zones; internally used as /s</t>
+  </si>
+  <si>
+    <t>0 - 300</t>
+  </si>
+  <si>
+    <t>`simDIC` activated by setting `ch4_initial` $\gt -9999$</t>
+  </si>
+  <si>
+    <t>$350-450\times 10^{-6}$</t>
+  </si>
+  <si>
+    <t>0, 1, 2</t>
+  </si>
+  <si>
+    <t>$1-2\times 10^{-6}$</t>
+  </si>
+  <si>
+    <t>0,1,2,3,4,5</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1974,8 +2159,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2052,6 +2244,12 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2253,7 +2451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2401,9 +2599,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2424,8 +2619,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2456,6 +2649,54 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6384,36 +6625,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I46"/>
+  <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="117" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="117" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
     <col min="5" max="5" width="52.33203125" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" style="109" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="137" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="133" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="50.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="118" t="s">
-        <v>503</v>
-      </c>
-      <c r="B1" s="118" t="s">
-        <v>502</v>
-      </c>
-      <c r="C1" s="118" t="s">
+      <c r="A1" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="115" t="s">
         <v>410</v>
       </c>
-      <c r="D1" s="125" t="s">
-        <v>501</v>
+      <c r="D1" s="122" t="s">
+        <v>466</v>
       </c>
       <c r="E1" s="97" t="s">
         <v>411</v>
@@ -6421,10 +6662,10 @@
       <c r="F1" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="G1" s="97" t="s">
+      <c r="G1" s="134" t="s">
         <v>414</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="125" t="s">
         <v>413</v>
       </c>
       <c r="I1" s="98" t="s">
@@ -6432,1166 +6673,1645 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="119" t="s">
-        <v>504</v>
-      </c>
-      <c r="C2" s="120" t="s">
+      <c r="B2" s="116" t="s">
+        <v>469</v>
+      </c>
+      <c r="C2" s="117" t="s">
         <v>415</v>
       </c>
-      <c r="D2" s="120" t="s">
-        <v>519</v>
+      <c r="D2" s="117" t="s">
+        <v>479</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>418</v>
+        <v>571</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="H2" s="111" t="s">
-        <v>437</v>
-      </c>
-      <c r="I2" s="100"/>
+        <v>591</v>
+      </c>
+      <c r="G2" s="135" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" s="126" t="s">
+        <v>427</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>616</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
-      <c r="B3" s="119" t="s">
-        <v>504</v>
-      </c>
-      <c r="C3" s="120" t="s">
+      <c r="B3" s="116" t="s">
+        <v>469</v>
+      </c>
+      <c r="C3" s="117" t="s">
         <v>416</v>
       </c>
-      <c r="D3" s="120" t="s">
-        <v>520</v>
+      <c r="D3" s="117" t="s">
+        <v>480</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>420</v>
+        <v>572</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>199</v>
-      </c>
-      <c r="G3" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="H3" s="112" t="s">
+        <v>591</v>
+      </c>
+      <c r="G3" s="135" t="s">
+        <v>461</v>
+      </c>
+      <c r="H3" s="127" t="s">
+        <v>447</v>
+      </c>
+      <c r="I3" s="100" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="116" t="s">
         <v>469</v>
       </c>
-      <c r="I3" s="101"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="119" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="119" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="117" t="s">
         <v>417</v>
       </c>
-      <c r="D4" s="120" t="s">
-        <v>521</v>
+      <c r="D4" s="117" t="s">
+        <v>481</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>421</v>
+        <v>574</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="135" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="126" t="s">
+        <v>448</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="C5" s="117" t="s">
+        <v>457</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>482</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>567</v>
+      </c>
+      <c r="G5" s="135" t="s">
+        <v>461</v>
+      </c>
+      <c r="H5" s="126" t="s">
+        <v>516</v>
+      </c>
+      <c r="I5" s="101" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B6" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="C6" s="117" t="s">
+        <v>471</v>
+      </c>
+      <c r="D6" s="117" t="s">
+        <v>476</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>613</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>592</v>
+      </c>
+      <c r="G6" s="135" t="s">
+        <v>462</v>
+      </c>
+      <c r="H6" s="126" t="s">
+        <v>619</v>
+      </c>
+      <c r="I6" s="101" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="117" t="s">
+        <v>472</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>477</v>
+      </c>
+      <c r="E7" s="99" t="s">
+        <v>614</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>592</v>
+      </c>
+      <c r="G7" s="135" t="s">
+        <v>462</v>
+      </c>
+      <c r="H7" s="126"/>
+      <c r="I7" s="101" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B8" s="118" t="s">
+        <v>473</v>
+      </c>
+      <c r="C8" s="119" t="s">
+        <v>420</v>
+      </c>
+      <c r="D8" s="119" t="s">
+        <v>478</v>
+      </c>
+      <c r="E8" s="102" t="s">
+        <v>575</v>
+      </c>
+      <c r="F8" s="102" t="s">
+        <v>426</v>
+      </c>
+      <c r="G8" s="136" t="s">
+        <v>461</v>
+      </c>
+      <c r="H8" s="128" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" s="104"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B9" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C9" s="119" t="s">
+        <v>609</v>
+      </c>
+      <c r="D9" s="119" t="s">
+        <v>509</v>
+      </c>
+      <c r="E9" s="102" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" s="102" t="s">
+        <v>593</v>
+      </c>
+      <c r="G9" s="136" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="129" t="s">
+        <v>430</v>
+      </c>
+      <c r="I9" s="103"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B10" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="119" t="s">
+        <v>421</v>
+      </c>
+      <c r="D10" s="119" t="s">
+        <v>605</v>
+      </c>
+      <c r="E10" s="102" t="s">
+        <v>576</v>
+      </c>
+      <c r="F10" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="G10" s="136" t="s">
+        <v>462</v>
+      </c>
+      <c r="H10" s="128" t="s">
+        <v>429</v>
+      </c>
+      <c r="I10" s="104"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B11" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C11" s="119" t="s">
+        <v>424</v>
+      </c>
+      <c r="D11" s="119" t="s">
+        <v>606</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>577</v>
+      </c>
+      <c r="F11" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="G11" s="136" t="s">
+        <v>462</v>
+      </c>
+      <c r="H11" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I11" s="104"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B12" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C12" s="119" t="s">
+        <v>422</v>
+      </c>
+      <c r="D12" s="138" t="s">
+        <v>607</v>
+      </c>
+      <c r="E12" s="102" t="s">
+        <v>578</v>
+      </c>
+      <c r="F12" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="G12" s="136" t="s">
+        <v>463</v>
+      </c>
+      <c r="H12" s="128" t="s">
+        <v>430</v>
+      </c>
+      <c r="I12" s="104"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B13" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C13" s="119" t="s">
+        <v>423</v>
+      </c>
+      <c r="D13" s="119" t="s">
+        <v>608</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>579</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>463</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C14" s="121" t="s">
+        <v>431</v>
+      </c>
+      <c r="D14" s="121" t="s">
+        <v>570</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>580</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>591</v>
+      </c>
+      <c r="G14" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H14" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="I14" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>432</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>603</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>581</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H15" s="131" t="s">
+        <v>448</v>
+      </c>
+      <c r="I15" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>604</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>582</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>591</v>
+      </c>
+      <c r="G16" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="130" t="s">
+        <v>447</v>
+      </c>
+      <c r="I16" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B17" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="C17" s="121" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="121" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="106" t="s">
+        <v>583</v>
+      </c>
+      <c r="F17" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="131" t="s">
+        <v>622</v>
+      </c>
+      <c r="I17" s="124" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="C18" s="121" t="s">
+        <v>452</v>
+      </c>
+      <c r="D18" s="121" t="s">
         <v>495</v>
       </c>
-      <c r="H4" s="111" t="s">
-        <v>470</v>
-      </c>
-      <c r="I4" s="102"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="119" t="s">
-        <v>409</v>
-      </c>
-      <c r="B5" s="119" t="s">
+      <c r="E18" s="106" t="s">
+        <v>460</v>
+      </c>
+      <c r="F18" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="131" t="s">
+        <v>624</v>
+      </c>
+      <c r="I18" s="124" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="C19" s="121" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>434</v>
+      </c>
+      <c r="F19" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="G19" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="131"/>
+      <c r="I19" s="124"/>
+    </row>
+    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B20" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C20" s="121" t="s">
+        <v>433</v>
+      </c>
+      <c r="D20" s="121" t="s">
+        <v>485</v>
+      </c>
+      <c r="E20" s="106" t="s">
+        <v>584</v>
+      </c>
+      <c r="F20" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G20" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H20" s="131" t="s">
+        <v>621</v>
+      </c>
+      <c r="I20" s="124"/>
+    </row>
+    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B21" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="E21" s="106" t="s">
+        <v>585</v>
+      </c>
+      <c r="F21" s="106" t="s">
+        <v>426</v>
+      </c>
+      <c r="G21" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H21" s="131" t="s">
+        <v>623</v>
+      </c>
+      <c r="I21" s="124"/>
+    </row>
+    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C22" s="121" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="121" t="s">
+        <v>507</v>
+      </c>
+      <c r="E22" s="106" t="s">
+        <v>586</v>
+      </c>
+      <c r="F22" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="H22" s="131" t="s">
+        <v>459</v>
+      </c>
+      <c r="I22" s="124" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B23" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C23" s="121" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="121" t="s">
+        <v>506</v>
+      </c>
+      <c r="E23" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="132" t="s">
+        <v>456</v>
+      </c>
+      <c r="H23" s="131" t="s">
+        <v>459</v>
+      </c>
+      <c r="I23" s="124" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B24" s="120" t="s">
+        <v>514</v>
+      </c>
+      <c r="C24" s="121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="E24" s="106" t="s">
+        <v>588</v>
+      </c>
+      <c r="F24" s="106" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H24" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="I24" s="124"/>
+    </row>
+    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B25" s="120" t="s">
+        <v>514</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="121" t="s">
+        <v>488</v>
+      </c>
+      <c r="E25" s="106" t="s">
+        <v>598</v>
+      </c>
+      <c r="F25" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G25" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H25" s="130" t="s">
+        <v>450</v>
+      </c>
+      <c r="I25" s="123"/>
+    </row>
+    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B26" s="120" t="s">
+        <v>514</v>
+      </c>
+      <c r="C26" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="121" t="s">
+        <v>489</v>
+      </c>
+      <c r="E26" s="106" t="s">
+        <v>437</v>
+      </c>
+      <c r="F26" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H26" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="I26" s="124"/>
+    </row>
+    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>514</v>
+      </c>
+      <c r="C27" s="121" t="s">
+        <v>441</v>
+      </c>
+      <c r="D27" s="121" t="s">
+        <v>493</v>
+      </c>
+      <c r="E27" s="106" t="s">
+        <v>442</v>
+      </c>
+      <c r="F27" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="132" t="s">
+        <v>443</v>
+      </c>
+      <c r="H27" s="131" t="s">
+        <v>457</v>
+      </c>
+      <c r="I27" s="124"/>
+    </row>
+    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B28" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C28" s="121" t="s">
+        <v>241</v>
+      </c>
+      <c r="D28" s="121" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28" s="106" t="s">
+        <v>589</v>
+      </c>
+      <c r="F28" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G28" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H28" s="130" t="s">
+        <v>428</v>
+      </c>
+      <c r="I28" s="123"/>
+    </row>
+    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B29" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C29" s="121" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="121" t="s">
+        <v>508</v>
+      </c>
+      <c r="E29" s="106" t="s">
+        <v>596</v>
+      </c>
+      <c r="F29" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G29" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H29" s="131" t="s">
+        <v>445</v>
+      </c>
+      <c r="I29" s="123"/>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B30" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C30" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="121" t="s">
+        <v>483</v>
+      </c>
+      <c r="E30" s="106" t="s">
+        <v>590</v>
+      </c>
+      <c r="F30" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H30" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="I30" s="124"/>
+    </row>
+    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A31" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B31" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C31" s="107" t="s">
+        <v>610</v>
+      </c>
+      <c r="D31" s="107"/>
+      <c r="E31" s="106"/>
+      <c r="F31" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G31" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H31" s="132">
+        <v>0</v>
+      </c>
+      <c r="I31" s="124"/>
+    </row>
+    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B32" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C32" s="121" t="s">
+        <v>438</v>
+      </c>
+      <c r="D32" s="121" t="s">
+        <v>490</v>
+      </c>
+      <c r="E32" s="106" t="s">
+        <v>573</v>
+      </c>
+      <c r="F32" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G32" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H32" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="I32" s="123"/>
+    </row>
+    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B33" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C33" s="121" t="s">
+        <v>439</v>
+      </c>
+      <c r="D33" s="121" t="s">
+        <v>491</v>
+      </c>
+      <c r="E33" s="106" t="s">
+        <v>597</v>
+      </c>
+      <c r="F33" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G33" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H33" s="130" t="s">
+        <v>449</v>
+      </c>
+      <c r="I33" s="123"/>
+    </row>
+    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B34" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C34" s="121" t="s">
+        <v>440</v>
+      </c>
+      <c r="D34" s="121" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" s="106" t="s">
+        <v>599</v>
+      </c>
+      <c r="F34" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H34" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="I34" s="124"/>
+    </row>
+    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B35" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C35" s="107" t="s">
+        <v>611</v>
+      </c>
+      <c r="D35" s="107"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G35" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H35" s="132">
+        <v>0</v>
+      </c>
+      <c r="I35" s="124"/>
+    </row>
+    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B36" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C36" s="107" t="s">
+        <v>455</v>
+      </c>
+      <c r="D36" s="121" t="s">
+        <v>504</v>
+      </c>
+      <c r="E36" s="106" t="s">
+        <v>600</v>
+      </c>
+      <c r="F36" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="132" t="s">
+        <v>464</v>
+      </c>
+      <c r="H36" s="132" t="s">
         <v>505</v>
       </c>
-      <c r="C5" s="120" t="s">
-        <v>490</v>
-      </c>
-      <c r="D5" s="120" t="s">
-        <v>522</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>524</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>509</v>
-      </c>
-      <c r="G5" s="99" t="s">
-        <v>495</v>
-      </c>
-      <c r="H5" s="111"/>
-      <c r="I5" s="102"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="119" t="s">
-        <v>409</v>
-      </c>
-      <c r="B6" s="119" t="s">
-        <v>505</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>506</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>514</v>
-      </c>
-      <c r="E6" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="G6" s="99" t="s">
+      <c r="I36" s="124"/>
+    </row>
+    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B37" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C37" s="107" t="s">
+        <v>612</v>
+      </c>
+      <c r="D37" s="107"/>
+      <c r="E37" s="106" t="s">
+        <v>595</v>
+      </c>
+      <c r="F37" s="105" t="s">
+        <v>594</v>
+      </c>
+      <c r="G37" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H37" s="132">
+        <v>0</v>
+      </c>
+      <c r="I37" s="124"/>
+    </row>
+    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B38" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C38" s="121" t="s">
         <v>496</v>
       </c>
-      <c r="H6" s="111"/>
-      <c r="I6" s="102" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="119" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="119" t="s">
-        <v>505</v>
-      </c>
-      <c r="C7" s="120" t="s">
-        <v>507</v>
-      </c>
-      <c r="D7" s="120" t="s">
-        <v>515</v>
-      </c>
-      <c r="E7" s="99" t="s">
-        <v>457</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="G7" s="99" t="s">
-        <v>496</v>
-      </c>
-      <c r="H7" s="111"/>
-      <c r="I7" s="102" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B8" s="121" t="s">
-        <v>510</v>
-      </c>
-      <c r="C8" s="122" t="s">
-        <v>423</v>
-      </c>
-      <c r="D8" s="122" t="s">
-        <v>518</v>
-      </c>
-      <c r="E8" s="103" t="s">
-        <v>428</v>
-      </c>
-      <c r="F8" s="103" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="H8" s="114" t="s">
-        <v>437</v>
-      </c>
-      <c r="I8" s="105"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" s="121" t="s">
+      <c r="D38" s="107"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="105"/>
+      <c r="G38" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H38" s="132">
+        <v>0</v>
+      </c>
+      <c r="I38" s="124"/>
+    </row>
+    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A39" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B39" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C39" s="121" t="s">
+        <v>497</v>
+      </c>
+      <c r="D39" s="107"/>
+      <c r="E39" s="106"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H39" s="132">
+        <v>0</v>
+      </c>
+      <c r="I39" s="124"/>
+    </row>
+    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B40" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C40" s="121" t="s">
+        <v>498</v>
+      </c>
+      <c r="D40" s="107"/>
+      <c r="E40" s="106"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H40" s="132">
+        <v>0</v>
+      </c>
+      <c r="I40" s="124"/>
+    </row>
+    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B41" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C41" s="121" t="s">
         <v>499</v>
       </c>
-      <c r="D9" s="122" t="s">
-        <v>557</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>429</v>
-      </c>
-      <c r="F9" s="103" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="103" t="s">
-        <v>495</v>
-      </c>
-      <c r="H9" s="113" t="s">
-        <v>440</v>
-      </c>
-      <c r="I9" s="104"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B10" s="121" t="s">
+      <c r="D41" s="107"/>
+      <c r="E41" s="106"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H41" s="132">
+        <v>0</v>
+      </c>
+      <c r="I41" s="124"/>
+    </row>
+    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B42" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C10" s="122" t="s">
-        <v>424</v>
-      </c>
-      <c r="D10" s="122" t="s">
-        <v>514</v>
-      </c>
-      <c r="E10" s="103" t="s">
-        <v>430</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="G10" s="103" t="s">
-        <v>496</v>
-      </c>
-      <c r="H10" s="114" t="s">
-        <v>439</v>
-      </c>
-      <c r="I10" s="103"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B11" s="121" t="s">
+      <c r="C42" s="121" t="s">
+        <v>500</v>
+      </c>
+      <c r="D42" s="107"/>
+      <c r="E42" s="106"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H42" s="132">
+        <v>0</v>
+      </c>
+      <c r="I42" s="124"/>
+    </row>
+    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B43" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C11" s="122" t="s">
-        <v>427</v>
-      </c>
-      <c r="D11" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="E11" s="103" t="s">
-        <v>431</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="G11" s="103" t="s">
-        <v>496</v>
-      </c>
-      <c r="H11" s="114" t="s">
-        <v>438</v>
-      </c>
-      <c r="I11" s="103"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B12" s="121" t="s">
+      <c r="C43" s="121" t="s">
+        <v>501</v>
+      </c>
+      <c r="D43" s="107"/>
+      <c r="E43" s="106"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H43" s="132">
+        <v>0</v>
+      </c>
+      <c r="I43" s="124"/>
+    </row>
+    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B44" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C12" s="122" t="s">
-        <v>425</v>
-      </c>
-      <c r="D12" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="E12" s="103" t="s">
-        <v>432</v>
-      </c>
-      <c r="F12" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="G12" s="103" t="s">
-        <v>497</v>
-      </c>
-      <c r="H12" s="114" t="s">
-        <v>440</v>
-      </c>
-      <c r="I12" s="103"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="121" t="s">
-        <v>422</v>
-      </c>
-      <c r="B13" s="121" t="s">
+      <c r="C44" s="121" t="s">
+        <v>502</v>
+      </c>
+      <c r="D44" s="107"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H44" s="132">
+        <v>0</v>
+      </c>
+      <c r="I44" s="124"/>
+    </row>
+    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B45" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="C13" s="122" t="s">
-        <v>426</v>
-      </c>
-      <c r="D13" s="122" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="103" t="s">
-        <v>433</v>
-      </c>
-      <c r="F13" s="103" t="s">
-        <v>436</v>
-      </c>
-      <c r="G13" s="103" t="s">
-        <v>497</v>
-      </c>
-      <c r="H13" s="114" t="s">
-        <v>438</v>
-      </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B14" s="123" t="s">
-        <v>558</v>
-      </c>
-      <c r="C14" s="124" t="s">
-        <v>441</v>
-      </c>
-      <c r="D14" s="124" t="s">
-        <v>512</v>
-      </c>
-      <c r="E14" s="107" t="s">
-        <v>554</v>
-      </c>
-      <c r="F14" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="G14" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H14" s="115" t="s">
-        <v>437</v>
-      </c>
-      <c r="I14" s="106" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B15" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C15" s="124" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>500</v>
-      </c>
-      <c r="E15" s="107" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G15" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H15" s="115" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" s="106"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B16" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C16" s="124" t="s">
-        <v>242</v>
-      </c>
-      <c r="D16" s="124" t="s">
-        <v>556</v>
-      </c>
-      <c r="E16" s="107" t="s">
-        <v>443</v>
-      </c>
-      <c r="F16" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="G16" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H16" s="116" t="s">
-        <v>466</v>
-      </c>
-      <c r="I16" s="106"/>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B17" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C17" s="124" t="s">
-        <v>243</v>
-      </c>
-      <c r="D17" s="124" t="s">
-        <v>526</v>
-      </c>
-      <c r="E17" s="107" t="s">
-        <v>444</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H17" s="116" t="s">
-        <v>465</v>
-      </c>
-      <c r="I17" s="107"/>
-    </row>
-    <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B18" s="123" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="124" t="s">
-        <v>445</v>
-      </c>
-      <c r="D18" s="124" t="s">
-        <v>525</v>
-      </c>
-      <c r="E18" s="107" t="s">
-        <v>446</v>
-      </c>
-      <c r="F18" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H18" s="116" t="s">
-        <v>470</v>
-      </c>
-      <c r="I18" s="106" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B19" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="C19" s="124" t="s">
-        <v>447</v>
-      </c>
-      <c r="D19" s="124" t="s">
-        <v>528</v>
-      </c>
-      <c r="E19" s="107" t="s">
-        <v>448</v>
-      </c>
-      <c r="F19" s="107" t="s">
-        <v>434</v>
-      </c>
-      <c r="G19" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H19" s="116">
-        <v>3.6699999999999998E-4</v>
-      </c>
-      <c r="I19" s="107"/>
-    </row>
-    <row r="20" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="C20" s="124" t="s">
-        <v>467</v>
-      </c>
-      <c r="D20" s="124" t="s">
-        <v>527</v>
-      </c>
-      <c r="E20" s="107" t="s">
-        <v>468</v>
-      </c>
-      <c r="F20" s="107" t="s">
-        <v>434</v>
-      </c>
-      <c r="G20" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H20" s="116">
-        <v>1.7600000000000001E-6</v>
-      </c>
-      <c r="I20" s="107"/>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="C21" s="124" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="124" t="s">
-        <v>529</v>
-      </c>
-      <c r="E21" s="107" t="s">
-        <v>449</v>
-      </c>
-      <c r="F21" s="107" t="s">
-        <v>450</v>
-      </c>
-      <c r="G21" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="107"/>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B22" s="123" t="s">
-        <v>558</v>
-      </c>
-      <c r="C22" s="124" t="s">
-        <v>451</v>
-      </c>
-      <c r="D22" s="124" t="s">
-        <v>530</v>
-      </c>
-      <c r="E22" s="107" t="s">
-        <v>452</v>
-      </c>
-      <c r="F22" s="106" t="s">
-        <v>199</v>
-      </c>
-      <c r="G22" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H22" s="115" t="s">
-        <v>469</v>
-      </c>
-      <c r="I22" s="106" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B23" s="123" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" s="124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="124" t="s">
-        <v>531</v>
-      </c>
-      <c r="E23" s="107" t="s">
-        <v>453</v>
-      </c>
-      <c r="F23" s="107"/>
-      <c r="G23" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H23" s="116" t="s">
-        <v>438</v>
-      </c>
-      <c r="I23" s="107"/>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B24" s="123" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" s="124" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="124" t="s">
-        <v>532</v>
-      </c>
-      <c r="E24" s="107" t="s">
-        <v>454</v>
-      </c>
-      <c r="F24" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="G24" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H24" s="115" t="s">
-        <v>472</v>
-      </c>
-      <c r="I24" s="106"/>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B25" s="123" t="s">
-        <v>562</v>
-      </c>
-      <c r="C25" s="124" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="124" t="s">
-        <v>533</v>
-      </c>
-      <c r="E25" s="107" t="s">
-        <v>455</v>
-      </c>
-      <c r="F25" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H25" s="116" t="s">
-        <v>465</v>
-      </c>
-      <c r="I25" s="107"/>
-    </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B26" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C26" s="124" t="s">
-        <v>456</v>
-      </c>
-      <c r="D26" s="124" t="s">
-        <v>534</v>
-      </c>
-      <c r="E26" s="107" t="s">
-        <v>457</v>
-      </c>
-      <c r="F26" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G26" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H26" s="116" t="s">
-        <v>438</v>
-      </c>
-      <c r="I26" s="106"/>
-    </row>
-    <row r="27" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B27" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C27" s="124" t="s">
-        <v>458</v>
-      </c>
-      <c r="D27" s="124" t="s">
-        <v>535</v>
-      </c>
-      <c r="E27" s="107" t="s">
-        <v>459</v>
-      </c>
-      <c r="F27" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="G27" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H27" s="115" t="s">
-        <v>471</v>
-      </c>
-      <c r="I27" s="106"/>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B28" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C28" s="124" t="s">
-        <v>460</v>
-      </c>
-      <c r="D28" s="124" t="s">
-        <v>536</v>
-      </c>
-      <c r="E28" s="107" t="s">
-        <v>461</v>
-      </c>
-      <c r="F28" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H28" s="116" t="s">
-        <v>465</v>
-      </c>
-      <c r="I28" s="107"/>
-    </row>
-    <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B29" s="123" t="s">
-        <v>562</v>
-      </c>
-      <c r="C29" s="124" t="s">
-        <v>462</v>
-      </c>
-      <c r="D29" s="124" t="s">
-        <v>537</v>
-      </c>
-      <c r="E29" s="107" t="s">
-        <v>463</v>
-      </c>
-      <c r="F29" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="107" t="s">
-        <v>464</v>
-      </c>
-      <c r="H29" s="116" t="s">
-        <v>490</v>
-      </c>
-      <c r="I29" s="107"/>
-    </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="C30" s="124" t="s">
-        <v>473</v>
-      </c>
-      <c r="D30" s="124" t="s">
-        <v>538</v>
-      </c>
-      <c r="E30" s="107" t="s">
-        <v>493</v>
-      </c>
-      <c r="F30" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="107" t="s">
-        <v>482</v>
-      </c>
-      <c r="H30" s="116" t="s">
-        <v>483</v>
-      </c>
-      <c r="I30" s="107" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B31" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="C31" s="124" t="s">
-        <v>474</v>
-      </c>
-      <c r="D31" s="124" t="s">
-        <v>539</v>
-      </c>
-      <c r="E31" s="107" t="s">
-        <v>494</v>
-      </c>
-      <c r="F31" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="107" t="s">
-        <v>482</v>
-      </c>
-      <c r="H31" s="116" t="s">
-        <v>488</v>
-      </c>
-      <c r="I31" s="107" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B32" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="C32" s="124" t="s">
-        <v>475</v>
-      </c>
-      <c r="D32" s="124" t="s">
-        <v>553</v>
-      </c>
-      <c r="E32" s="107" t="s">
-        <v>484</v>
-      </c>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107" t="s">
-        <v>482</v>
-      </c>
-      <c r="H32" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="I32" s="107" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B33" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="C33" s="124" t="s">
-        <v>476</v>
-      </c>
-      <c r="D33" s="124" t="s">
-        <v>552</v>
-      </c>
-      <c r="E33" s="107" t="s">
-        <v>485</v>
-      </c>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107" t="s">
-        <v>482</v>
-      </c>
-      <c r="H33" s="116" t="s">
-        <v>492</v>
-      </c>
-      <c r="I33" s="107" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B34" s="123" t="s">
-        <v>561</v>
-      </c>
-      <c r="C34" s="124" t="s">
-        <v>477</v>
-      </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="107" t="s">
-        <v>463</v>
-      </c>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" s="116" t="s">
-        <v>478</v>
-      </c>
-      <c r="I34" s="107"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B35" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C35" s="108" t="s">
-        <v>479</v>
-      </c>
-      <c r="D35" s="124" t="s">
-        <v>550</v>
-      </c>
-      <c r="E35" s="107" t="s">
-        <v>486</v>
-      </c>
-      <c r="F35" s="107" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="107" t="s">
-        <v>498</v>
-      </c>
-      <c r="H35" s="107" t="s">
-        <v>551</v>
-      </c>
-      <c r="I35" s="107"/>
-    </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B36" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C36" s="108" t="s">
-        <v>480</v>
-      </c>
-      <c r="D36" s="108"/>
-      <c r="E36" s="107" t="s">
-        <v>487</v>
-      </c>
-      <c r="F36" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G36" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H36" s="107">
+      <c r="C45" s="121" t="s">
+        <v>503</v>
+      </c>
+      <c r="D45" s="107"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H45" s="132">
         <v>0</v>
       </c>
-      <c r="I36" s="107"/>
-    </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B37" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C37" s="117" t="s">
-        <v>540</v>
-      </c>
-      <c r="D37" s="108"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G37" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H37" s="107">
-        <v>0</v>
-      </c>
-      <c r="I37" s="107"/>
-    </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B38" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C38" s="117" t="s">
-        <v>541</v>
-      </c>
-      <c r="D38" s="108"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G38" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H38" s="107">
-        <v>0</v>
-      </c>
-      <c r="I38" s="107"/>
-    </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B39" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C39" s="117" t="s">
-        <v>542</v>
-      </c>
-      <c r="D39" s="108"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G39" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H39" s="107">
-        <v>0</v>
-      </c>
-      <c r="I39" s="107"/>
-    </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B40" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C40" s="117" t="s">
-        <v>543</v>
-      </c>
-      <c r="D40" s="108"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G40" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H40" s="107">
-        <v>0</v>
-      </c>
-      <c r="I40" s="107"/>
-    </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B41" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C41" s="117" t="s">
-        <v>544</v>
-      </c>
-      <c r="D41" s="108"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G41" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H41" s="107">
-        <v>0</v>
-      </c>
-      <c r="I41" s="107"/>
-    </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B42" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C42" s="117" t="s">
-        <v>545</v>
-      </c>
-      <c r="D42" s="108"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G42" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H42" s="107">
-        <v>0</v>
-      </c>
-      <c r="I42" s="107"/>
-    </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B43" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C43" s="117" t="s">
-        <v>546</v>
-      </c>
-      <c r="D43" s="108"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G43" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H43" s="107">
-        <v>0</v>
-      </c>
-      <c r="I43" s="107"/>
-    </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B44" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C44" s="117" t="s">
-        <v>547</v>
-      </c>
-      <c r="D44" s="108"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="106" t="s">
-        <v>436</v>
-      </c>
-      <c r="G44" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H44" s="107">
-        <v>0</v>
-      </c>
-      <c r="I44" s="107"/>
-    </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B45" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C45" s="117" t="s">
-        <v>548</v>
-      </c>
-      <c r="D45" s="108"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="107" t="s">
-        <v>419</v>
-      </c>
-      <c r="H45" s="107">
-        <v>0</v>
-      </c>
-      <c r="I45" s="107"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="123" t="s">
-        <v>513</v>
-      </c>
-      <c r="B46" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="C46" s="117" t="s">
-        <v>549</v>
-      </c>
+      <c r="I45" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC396BB8-F45B-E549-84BB-9F4F1986BE98}">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="114" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="114" customWidth="1"/>
+    <col min="5" max="5" width="52.33203125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="108" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="50.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="115" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="115" t="s">
+        <v>467</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>410</v>
+      </c>
+      <c r="D1" s="122" t="s">
+        <v>466</v>
+      </c>
+      <c r="E1" s="97" t="s">
+        <v>411</v>
+      </c>
+      <c r="F1" s="97" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>414</v>
+      </c>
+      <c r="H1" s="109" t="s">
+        <v>413</v>
+      </c>
+      <c r="I1" s="98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="116" t="s">
+        <v>515</v>
+      </c>
+      <c r="C2" s="117" t="s">
+        <v>457</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>482</v>
+      </c>
+      <c r="E2" s="99" t="s">
+        <v>568</v>
+      </c>
+      <c r="F2" s="99" t="s">
+        <v>562</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>461</v>
+      </c>
+      <c r="H2" s="110" t="s">
+        <v>516</v>
+      </c>
+      <c r="I2" s="100" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" s="116" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D3" s="117" t="s">
+        <v>533</v>
+      </c>
+      <c r="E3" s="99" t="s">
+        <v>560</v>
+      </c>
+      <c r="F3" s="99" t="s">
+        <v>563</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>462</v>
+      </c>
+      <c r="H3" s="110" t="s">
+        <v>537</v>
+      </c>
+      <c r="I3" s="101" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="118" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="119" t="s">
+        <v>518</v>
+      </c>
+      <c r="D4" s="119" t="s">
+        <v>534</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>544</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>561</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>461</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>519</v>
+      </c>
+      <c r="I4" s="104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B5" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C5" s="119" t="s">
+        <v>520</v>
+      </c>
+      <c r="D5" s="119" t="s">
+        <v>533</v>
+      </c>
+      <c r="E5" s="102" t="s">
+        <v>546</v>
+      </c>
+      <c r="F5" s="102" t="s">
+        <v>564</v>
+      </c>
+      <c r="G5" s="102" t="s">
+        <v>462</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>429</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B6" s="118" t="s">
+        <v>474</v>
+      </c>
+      <c r="C6" s="119" t="s">
+        <v>521</v>
+      </c>
+      <c r="D6" s="119" t="s">
+        <v>535</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>545</v>
+      </c>
+      <c r="F6" s="102" t="s">
+        <v>565</v>
+      </c>
+      <c r="G6" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>430</v>
+      </c>
+      <c r="I6" s="104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B7" s="118" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="119" t="s">
+        <v>556</v>
+      </c>
+      <c r="D7" s="119" t="s">
+        <v>557</v>
+      </c>
+      <c r="E7" s="102" t="s">
+        <v>545</v>
+      </c>
+      <c r="F7" s="102" t="s">
+        <v>566</v>
+      </c>
+      <c r="G7" s="102" t="s">
+        <v>463</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>428</v>
+      </c>
+      <c r="I7" s="104" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B8" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C8" s="121" t="s">
+        <v>523</v>
+      </c>
+      <c r="D8" s="121" t="s">
+        <v>555</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>541</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G8" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H8" s="112" t="s">
+        <v>427</v>
+      </c>
+      <c r="I8" s="123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B9" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C9" s="121" t="s">
+        <v>528</v>
+      </c>
+      <c r="D9" s="121" t="s">
+        <v>547</v>
+      </c>
+      <c r="E9" s="106" t="s">
+        <v>548</v>
+      </c>
+      <c r="F9" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G9" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H9" s="112" t="s">
+        <v>553</v>
+      </c>
+      <c r="I9" s="123" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B10" s="120" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="121" t="s">
+        <v>529</v>
+      </c>
+      <c r="D10" s="121" t="s">
+        <v>551</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>549</v>
+      </c>
+      <c r="F10" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H10" s="112" t="s">
+        <v>554</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B11" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C11" s="121" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="121" t="s">
+        <v>530</v>
+      </c>
+      <c r="E11" s="106" t="s">
+        <v>540</v>
+      </c>
+      <c r="F11" s="105" t="s">
+        <v>564</v>
+      </c>
+      <c r="G11" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H11" s="112" t="s">
+        <v>537</v>
+      </c>
+      <c r="I11" s="123" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C12" s="121" t="s">
+        <v>235</v>
+      </c>
+      <c r="D12" s="121" t="s">
+        <v>569</v>
+      </c>
+      <c r="E12" s="106" t="s">
+        <v>552</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>567</v>
+      </c>
+      <c r="G12" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H12" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B13" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C13" s="121" t="s">
+        <v>240</v>
+      </c>
+      <c r="D13" s="121" t="s">
+        <v>531</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>539</v>
+      </c>
+      <c r="F13" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H13" s="113" t="s">
+        <v>550</v>
+      </c>
+      <c r="I13" s="124" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B14" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>536</v>
+      </c>
+      <c r="F14" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="106" t="s">
+        <v>443</v>
+      </c>
+      <c r="H14" s="106" t="s">
+        <v>532</v>
+      </c>
+      <c r="I14" s="124" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="120" t="s">
+        <v>475</v>
+      </c>
+      <c r="B15" s="120" t="s">
+        <v>512</v>
+      </c>
+      <c r="C15" s="121" t="s">
+        <v>525</v>
+      </c>
+      <c r="D15" s="121" t="s">
+        <v>526</v>
+      </c>
+      <c r="E15" s="106" t="s">
+        <v>527</v>
+      </c>
+      <c r="F15" s="106" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="106" t="s">
+        <v>456</v>
+      </c>
+      <c r="H15" s="113" t="s">
+        <v>459</v>
+      </c>
+      <c r="I15" s="124" t="s">
+        <v>558</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B000B5DA-F0E8-CC4A-B18F-2AC2077FADCB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A561A916-1A79-0F49-BE10-F88D4ABF97FD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/tables/carbonTableNewGrouping.xlsx
+++ b/tables/carbonTableNewGrouping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthipsey/AED Dropbox/05_Software/AED/aed-science/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B027A6B7-4691-F446-BD82-651EC851F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1076EE77-E9D1-D04D-A61C-B571198658E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="500" windowWidth="27980" windowHeight="27220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-140" yWindow="500" windowWidth="27980" windowHeight="27220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelagic" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="661">
   <si>
     <t>Oxygen</t>
   </si>
@@ -1506,9 +1506,6 @@
     <t>pH_initial</t>
   </si>
   <si>
-    <t>atmco2</t>
-  </si>
-  <si>
     <t>average ionic strength of the water column</t>
   </si>
   <si>
@@ -1518,9 +1515,6 @@
     <t>ch4_initial</t>
   </si>
   <si>
-    <t>Arrhenius temperature multiplier for CH4 oxidation</t>
-  </si>
-  <si>
     <t>Fsed_ch4</t>
   </si>
   <si>
@@ -1533,9 +1527,6 @@
     <t>methane_reactant_variable</t>
   </si>
   <si>
-    <t>state variable to be consumed during CH4 oxidation</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -1545,9 +1536,6 @@
     <t>20 - 100</t>
   </si>
   <si>
-    <t>atmch4</t>
-  </si>
-  <si>
     <t>0 - 200</t>
   </si>
   <si>
@@ -1572,9 +1560,6 @@
     <t>ch4_piston_model</t>
   </si>
   <si>
-    <t>simCH4ebb</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -1695,9 +1680,6 @@
     <t>\Theta_{TA}</t>
   </si>
   <si>
-    <t xml:space="preserve"> ch4_bub_tau0</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ch4_bub_aLL</t>
   </si>
   <si>
@@ -1716,15 +1698,9 @@
     <t xml:space="preserve"> ch4_bub_disdp</t>
   </si>
   <si>
-    <t xml:space="preserve"> ch4_bub_ws</t>
-  </si>
-  <si>
     <t>\Theta_{ch4}^{ebullition}</t>
   </si>
   <si>
-    <t>T or F</t>
-  </si>
-  <si>
     <t>\Theta_{ch4}^{piston}</t>
   </si>
   <si>
@@ -1926,9 +1902,6 @@
     <t>dissolved methane concentration</t>
   </si>
   <si>
-    <t>sediment $CH_4$ flux</t>
-  </si>
-  <si>
     <t>$pH$ value</t>
   </si>
   <si>
@@ -1971,12 +1944,6 @@
     <t>selection of air-water $CH_4$ flux velocity method</t>
   </si>
   <si>
-    <t>maximum reaction rate of $CH_4$ oxidatin @ 20C</t>
-  </si>
-  <si>
-    <t>sediment $CO_2$ flux @ 20C</t>
-  </si>
-  <si>
     <t>Arrhenius temperature multiplier for sediment $CO_2$ flux</t>
   </si>
   <si>
@@ -1992,9 +1959,6 @@
     <t>mmol\: C/m^2/d</t>
   </si>
   <si>
-    <t>rate of $CH_4$ ebullition</t>
-  </si>
-  <si>
     <t>half-saturation oxygen conc. controlling $CO_2$ flux</t>
   </si>
   <si>
@@ -2080,6 +2044,150 @@
   </si>
   <si>
     <t>0,1,2,3,4,5</t>
+  </si>
+  <si>
+    <t>state variable to be consumed during $CH_4$ oxidation</t>
+  </si>
+  <si>
+    <t>Arrhenius temperature multiplier for $CH_4$ oxidation</t>
+  </si>
+  <si>
+    <t>`SDF_Fsed_dic`</t>
+  </si>
+  <si>
+    <t>`SDF_Fsed_ch4`</t>
+  </si>
+  <si>
+    <t>`SDF_Fsed_ch4_ebb`</t>
+  </si>
+  <si>
+    <t>\mathbf{F}_{sed}^{ch4-ebb}</t>
+  </si>
+  <si>
+    <t>SDF_Fsed_ch4_ebb</t>
+  </si>
+  <si>
+    <t>sediment $CH_4$ bubble release rate</t>
+  </si>
+  <si>
+    <t>CAR_sed_ch4_ebb_3d</t>
+  </si>
+  <si>
+    <t>CAR_ch4_ebb_df</t>
+  </si>
+  <si>
+    <t>CAR_sed_ch4_ebb</t>
+  </si>
+  <si>
+    <t>CAR_atm_ch4_ebb_flux</t>
+  </si>
+  <si>
+    <t>$CH_4$ bubble dissolution</t>
+  </si>
+  <si>
+    <t>\mathbf{f}_{dis}^{CH_{4-bubble}}</t>
+  </si>
+  <si>
+    <t>$CH_4$ bubble flux (ebullition) across sediment-water interface</t>
+  </si>
+  <si>
+    <t>$CH_4$ bubble flux across air-water interface</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{atm}^{ch4-bub}</t>
+  </si>
+  <si>
+    <t>\mathbf{\mathcal{F}}_{sed}^{ch4-bub}</t>
+  </si>
+  <si>
+    <t>\mathbf{\hat{f}}_{sed}^{CH_{4-bubble}}</t>
+  </si>
+  <si>
+    <t>$CH_4$ bubble flux (ebullition) volume flux</t>
+  </si>
+  <si>
+    <t>bubble dissolution fraction (surface)</t>
+  </si>
+  <si>
+    <t>bubble dissolution fraction (deep)</t>
+  </si>
+  <si>
+    <t>bubble dissolution fraction depth interface</t>
+  </si>
+  <si>
+    <t>1 - 100</t>
+  </si>
+  <si>
+    <t>\epsilon_{reg}</t>
+  </si>
+  <si>
+    <t>c_{n}</t>
+  </si>
+  <si>
+    <t>mean water depth</t>
+  </si>
+  <si>
+    <t>normalising constant</t>
+  </si>
+  <si>
+    <t>exponential factor from the depth-ebullition regression relation</t>
+  </si>
+  <si>
+    <t>Sediment ebullition</t>
+  </si>
+  <si>
+    <t>\bar{z}</t>
+  </si>
+  <si>
+    <t>maximum reaction rate of $CH_4$ oxidation @ $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>sediment $CO_2$ flux @  $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>sediment $CH_4$ flux @ $20^{\circ}C$</t>
+  </si>
+  <si>
+    <t>0.5 - 0.7</t>
+  </si>
+  <si>
+    <t>Lake Kinneret specific value</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -0.8 - -0.9</t>
+  </si>
+  <si>
+    <t>z_{dis}^{depth}</t>
+  </si>
+  <si>
+    <t>k_{dis}^{shallow}</t>
+  </si>
+  <si>
+    <t>k_{dis}^{deep}</t>
+  </si>
+  <si>
+    <t>ebb_model</t>
+  </si>
+  <si>
+    <t>0 , 1</t>
+  </si>
+  <si>
+    <t>0:  no ebullition (default); 1:  simple release model</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>altitude of site above sea level</t>
+  </si>
+  <si>
+    <t>0 - 4000</t>
+  </si>
+  <si>
+    <t>defaults to 0; Eq \@ref(eq:oxy4) used for $H \gt 1$</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2275,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2249,6 +2357,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E0B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -2451,7 +2565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
@@ -2698,6 +2812,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6625,10 +6745,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="136" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView topLeftCell="E1" zoomScale="131" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6645,16 +6765,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C1" s="115" t="s">
         <v>410</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E1" s="97" t="s">
         <v>411</v>
@@ -6672,1157 +6792,1296 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C2" s="117" t="s">
         <v>415</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G2" s="135" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H2" s="126" t="s">
         <v>427</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C3" s="117" t="s">
         <v>416</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="G3" s="135" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H3" s="127" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="I3" s="100" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B4" s="116" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="C4" s="117" t="s">
         <v>417</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E4" s="99" t="s">
-        <v>574</v>
+        <v>565</v>
       </c>
       <c r="F4" s="99" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="135" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H4" s="126" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="I4" s="101" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B5" s="116" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C5" s="117" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E5" s="99" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G5" s="135" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I5" s="101" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B6" s="116" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C6" s="117" t="s">
+        <v>466</v>
+      </c>
+      <c r="D6" s="117" t="s">
         <v>471</v>
       </c>
-      <c r="D6" s="117" t="s">
-        <v>476</v>
-      </c>
       <c r="E6" s="99" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G6" s="135" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H6" s="126" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="I6" s="101" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="116" t="s">
         <v>409</v>
       </c>
       <c r="B7" s="116" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C7" s="117" t="s">
+        <v>467</v>
+      </c>
+      <c r="D7" s="117" t="s">
         <v>472</v>
       </c>
-      <c r="D7" s="117" t="s">
-        <v>477</v>
-      </c>
       <c r="E7" s="99" t="s">
-        <v>614</v>
+        <v>602</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="G7" s="135" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H7" s="126"/>
       <c r="I7" s="101" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="116" t="s">
+        <v>409</v>
+      </c>
+      <c r="B8" s="116" t="s">
+        <v>465</v>
+      </c>
+      <c r="C8" s="117" t="s">
+        <v>619</v>
+      </c>
+      <c r="D8" s="117" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
-        <v>419</v>
-      </c>
-      <c r="B8" s="118" t="s">
-        <v>473</v>
-      </c>
-      <c r="C8" s="119" t="s">
-        <v>420</v>
-      </c>
-      <c r="D8" s="119" t="s">
-        <v>478</v>
-      </c>
-      <c r="E8" s="102" t="s">
-        <v>575</v>
-      </c>
-      <c r="F8" s="102" t="s">
-        <v>426</v>
-      </c>
-      <c r="G8" s="136" t="s">
-        <v>461</v>
-      </c>
-      <c r="H8" s="128" t="s">
-        <v>427</v>
-      </c>
-      <c r="I8" s="104"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E8" s="99" t="s">
+        <v>620</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>581</v>
+      </c>
+      <c r="G8" s="135" t="s">
+        <v>457</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="101" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B9" s="118" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="C9" s="119" t="s">
-        <v>609</v>
+        <v>420</v>
       </c>
       <c r="D9" s="119" t="s">
-        <v>509</v>
+        <v>473</v>
       </c>
       <c r="E9" s="102" t="s">
-        <v>425</v>
+        <v>566</v>
       </c>
       <c r="F9" s="102" t="s">
-        <v>593</v>
+        <v>426</v>
       </c>
       <c r="G9" s="136" t="s">
-        <v>461</v>
-      </c>
-      <c r="H9" s="129" t="s">
-        <v>430</v>
-      </c>
-      <c r="I9" s="103"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="H9" s="128" t="s">
+        <v>427</v>
+      </c>
+      <c r="I9" s="104"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B10" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C10" s="119" t="s">
-        <v>421</v>
+        <v>597</v>
       </c>
       <c r="D10" s="119" t="s">
-        <v>605</v>
+        <v>501</v>
       </c>
       <c r="E10" s="102" t="s">
-        <v>576</v>
+        <v>425</v>
       </c>
       <c r="F10" s="102" t="s">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="G10" s="136" t="s">
-        <v>462</v>
-      </c>
-      <c r="H10" s="128" t="s">
-        <v>429</v>
-      </c>
-      <c r="I10" s="104"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+      <c r="H10" s="129" t="s">
+        <v>430</v>
+      </c>
+      <c r="I10" s="103"/>
+    </row>
+    <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B11" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C11" s="119" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D11" s="119" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
       <c r="E11" s="102" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F11" s="102" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G11" s="136" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H11" s="128" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I11" s="104"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B12" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C12" s="119" t="s">
-        <v>422</v>
-      </c>
-      <c r="D12" s="138" t="s">
-        <v>607</v>
+        <v>424</v>
+      </c>
+      <c r="D12" s="119" t="s">
+        <v>594</v>
       </c>
       <c r="E12" s="102" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="F12" s="102" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="H12" s="128" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="I12" s="104"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="118" t="s">
         <v>419</v>
       </c>
       <c r="B13" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C13" s="119" t="s">
+        <v>422</v>
+      </c>
+      <c r="D13" s="138" t="s">
+        <v>595</v>
+      </c>
+      <c r="E13" s="102" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="H13" s="128" t="s">
+        <v>430</v>
+      </c>
+      <c r="I13" s="104"/>
+    </row>
+    <row r="14" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C14" s="119" t="s">
         <v>423</v>
       </c>
-      <c r="D13" s="119" t="s">
-        <v>608</v>
-      </c>
-      <c r="E13" s="102" t="s">
-        <v>579</v>
-      </c>
-      <c r="F13" s="102" t="s">
-        <v>594</v>
-      </c>
-      <c r="G13" s="136" t="s">
-        <v>463</v>
-      </c>
-      <c r="H13" s="128" t="s">
+      <c r="D14" s="119" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>570</v>
+      </c>
+      <c r="F14" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G14" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="H14" s="128" t="s">
         <v>428</v>
       </c>
-      <c r="I13" s="104"/>
-    </row>
-    <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B14" s="120" t="s">
-        <v>510</v>
-      </c>
-      <c r="C14" s="121" t="s">
+      <c r="I14" s="104"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B15" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C15" s="119" t="s">
+        <v>624</v>
+      </c>
+      <c r="D15" s="119" t="s">
+        <v>629</v>
+      </c>
+      <c r="E15" s="102" t="s">
+        <v>628</v>
+      </c>
+      <c r="F15" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G15" s="136" t="s">
+        <v>458</v>
+      </c>
+      <c r="H15" s="128"/>
+      <c r="I15" s="104"/>
+    </row>
+    <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B16" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>623</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>630</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>627</v>
+      </c>
+      <c r="F16" s="102" t="s">
+        <v>583</v>
+      </c>
+      <c r="G16" s="136" t="s">
+        <v>457</v>
+      </c>
+      <c r="H16" s="128"/>
+      <c r="I16" s="104"/>
+    </row>
+    <row r="17" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B17" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>621</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>631</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>632</v>
+      </c>
+      <c r="F17" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G17" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H17" s="128"/>
+      <c r="I17" s="104"/>
+    </row>
+    <row r="18" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="118" t="s">
+        <v>419</v>
+      </c>
+      <c r="B18" s="118" t="s">
+        <v>469</v>
+      </c>
+      <c r="C18" s="119" t="s">
+        <v>622</v>
+      </c>
+      <c r="D18" s="119" t="s">
+        <v>626</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18" s="102" t="s">
+        <v>582</v>
+      </c>
+      <c r="G18" s="136" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18" s="128" t="s">
+        <v>428</v>
+      </c>
+      <c r="I18" s="104"/>
+    </row>
+    <row r="19" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="120" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="121" t="s">
         <v>431</v>
       </c>
-      <c r="D14" s="121" t="s">
-        <v>570</v>
-      </c>
-      <c r="E14" s="106" t="s">
+      <c r="D19" s="121" t="s">
+        <v>562</v>
+      </c>
+      <c r="E19" s="106" t="s">
+        <v>571</v>
+      </c>
+      <c r="F19" s="105" t="s">
         <v>580</v>
-      </c>
-      <c r="F14" s="105" t="s">
-        <v>591</v>
-      </c>
-      <c r="G14" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H14" s="130" t="s">
-        <v>427</v>
-      </c>
-      <c r="I14" s="123" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B15" s="120" t="s">
-        <v>510</v>
-      </c>
-      <c r="C15" s="121" t="s">
-        <v>432</v>
-      </c>
-      <c r="D15" s="121" t="s">
-        <v>603</v>
-      </c>
-      <c r="E15" s="106" t="s">
-        <v>581</v>
-      </c>
-      <c r="F15" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H15" s="131" t="s">
-        <v>448</v>
-      </c>
-      <c r="I15" s="123" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B16" s="120" t="s">
-        <v>510</v>
-      </c>
-      <c r="C16" s="121" t="s">
-        <v>436</v>
-      </c>
-      <c r="D16" s="121" t="s">
-        <v>604</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>582</v>
-      </c>
-      <c r="F16" s="105" t="s">
-        <v>591</v>
-      </c>
-      <c r="G16" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H16" s="130" t="s">
-        <v>447</v>
-      </c>
-      <c r="I16" s="123" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B17" s="120" t="s">
-        <v>513</v>
-      </c>
-      <c r="C17" s="121" t="s">
-        <v>451</v>
-      </c>
-      <c r="D17" s="121" t="s">
-        <v>494</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>583</v>
-      </c>
-      <c r="F17" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="132" t="s">
-        <v>456</v>
-      </c>
-      <c r="H17" s="131" t="s">
-        <v>622</v>
-      </c>
-      <c r="I17" s="124" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B18" s="120" t="s">
-        <v>513</v>
-      </c>
-      <c r="C18" s="121" t="s">
-        <v>452</v>
-      </c>
-      <c r="D18" s="121" t="s">
-        <v>495</v>
-      </c>
-      <c r="E18" s="106" t="s">
-        <v>460</v>
-      </c>
-      <c r="F18" s="106" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="132" t="s">
-        <v>456</v>
-      </c>
-      <c r="H18" s="131" t="s">
-        <v>624</v>
-      </c>
-      <c r="I18" s="124" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="120" t="s">
-        <v>475</v>
-      </c>
-      <c r="B19" s="120" t="s">
-        <v>513</v>
-      </c>
-      <c r="C19" s="121" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="121" t="s">
-        <v>486</v>
-      </c>
-      <c r="E19" s="106" t="s">
-        <v>434</v>
-      </c>
-      <c r="F19" s="106" t="s">
-        <v>435</v>
       </c>
       <c r="G19" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H19" s="131"/>
-      <c r="I19" s="124"/>
-    </row>
-    <row r="20" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="H19" s="130" t="s">
+        <v>427</v>
+      </c>
+      <c r="I19" s="123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C20" s="121" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D20" s="121" t="s">
-        <v>485</v>
+        <v>591</v>
       </c>
       <c r="E20" s="106" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="F20" s="106" t="s">
-        <v>426</v>
+        <v>9</v>
       </c>
       <c r="G20" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H20" s="131" t="s">
-        <v>621</v>
-      </c>
-      <c r="I20" s="124"/>
-    </row>
-    <row r="21" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>444</v>
+      </c>
+      <c r="I20" s="123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B21" s="120" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C21" s="121" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>484</v>
+        <v>592</v>
       </c>
       <c r="E21" s="106" t="s">
-        <v>585</v>
-      </c>
-      <c r="F21" s="106" t="s">
-        <v>426</v>
+        <v>573</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>580</v>
       </c>
       <c r="G21" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H21" s="131" t="s">
-        <v>623</v>
-      </c>
-      <c r="I21" s="124"/>
-    </row>
-    <row r="22" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H21" s="130" t="s">
+        <v>443</v>
+      </c>
+      <c r="I21" s="123" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B22" s="120" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C22" s="121" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="D22" s="121" t="s">
-        <v>507</v>
+        <v>489</v>
       </c>
       <c r="E22" s="106" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F22" s="106" t="s">
         <v>9</v>
       </c>
       <c r="G22" s="132" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H22" s="131" t="s">
-        <v>459</v>
+        <v>610</v>
       </c>
       <c r="I22" s="124" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="C23" s="121" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E23" s="106" t="s">
-        <v>587</v>
+        <v>455</v>
       </c>
       <c r="F23" s="106" t="s">
         <v>9</v>
       </c>
       <c r="G23" s="132" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H23" s="131" t="s">
-        <v>459</v>
+        <v>612</v>
       </c>
       <c r="I23" s="124" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="C24" s="121" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D24" s="121" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="E24" s="106" t="s">
-        <v>588</v>
+        <v>433</v>
       </c>
       <c r="F24" s="106" t="s">
-        <v>51</v>
+        <v>434</v>
       </c>
       <c r="G24" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H24" s="131" t="s">
-        <v>428</v>
-      </c>
+      <c r="H24" s="131"/>
       <c r="I24" s="124"/>
     </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B25" s="120" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C25" s="121" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" s="121" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E25" s="106" t="s">
-        <v>598</v>
-      </c>
-      <c r="F25" s="105" t="s">
-        <v>567</v>
+        <v>575</v>
+      </c>
+      <c r="F25" s="106" t="s">
+        <v>426</v>
       </c>
       <c r="G25" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H25" s="130" t="s">
-        <v>450</v>
-      </c>
-      <c r="I25" s="123"/>
-    </row>
-    <row r="26" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H25" s="131" t="s">
+        <v>609</v>
+      </c>
+      <c r="I25" s="124"/>
+    </row>
+    <row r="26" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C26" s="121" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D26" s="121" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="E26" s="106" t="s">
-        <v>437</v>
+        <v>576</v>
       </c>
       <c r="F26" s="106" t="s">
-        <v>9</v>
+        <v>426</v>
       </c>
       <c r="G26" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H26" s="131" t="s">
-        <v>444</v>
+        <v>611</v>
       </c>
       <c r="I26" s="124"/>
     </row>
-    <row r="27" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="C27" s="121" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="D27" s="121" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="E27" s="106" t="s">
-        <v>442</v>
+        <v>577</v>
       </c>
       <c r="F27" s="106" t="s">
         <v>9</v>
       </c>
       <c r="G27" s="132" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H27" s="131" t="s">
-        <v>457</v>
-      </c>
-      <c r="I27" s="124"/>
-    </row>
-    <row r="28" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+      <c r="I27" s="124" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="C28" s="121" t="s">
-        <v>241</v>
+        <v>450</v>
       </c>
       <c r="D28" s="121" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="E28" s="106" t="s">
-        <v>589</v>
-      </c>
-      <c r="F28" s="105" t="s">
-        <v>594</v>
+        <v>578</v>
+      </c>
+      <c r="F28" s="106" t="s">
+        <v>9</v>
       </c>
       <c r="G28" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H28" s="130" t="s">
-        <v>428</v>
-      </c>
-      <c r="I28" s="123"/>
-    </row>
-    <row r="29" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>451</v>
+      </c>
+      <c r="H28" s="131" t="s">
+        <v>454</v>
+      </c>
+      <c r="I28" s="124" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C29" s="121" t="s">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c r="D29" s="121" t="s">
-        <v>508</v>
+        <v>482</v>
       </c>
       <c r="E29" s="106" t="s">
-        <v>596</v>
-      </c>
-      <c r="F29" s="105" t="s">
-        <v>567</v>
+        <v>644</v>
+      </c>
+      <c r="F29" s="106" t="s">
+        <v>51</v>
       </c>
       <c r="G29" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H29" s="131" t="s">
-        <v>445</v>
-      </c>
-      <c r="I29" s="123"/>
-    </row>
-    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>428</v>
+      </c>
+      <c r="I29" s="124"/>
+    </row>
+    <row r="30" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C30" s="121" t="s">
-        <v>243</v>
+        <v>16</v>
       </c>
       <c r="D30" s="121" t="s">
         <v>483</v>
       </c>
       <c r="E30" s="106" t="s">
-        <v>590</v>
-      </c>
-      <c r="F30" s="106" t="s">
-        <v>9</v>
+        <v>586</v>
+      </c>
+      <c r="F30" s="105" t="s">
+        <v>559</v>
       </c>
       <c r="G30" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H30" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="I30" s="124"/>
-    </row>
-    <row r="31" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H30" s="130" t="s">
+        <v>446</v>
+      </c>
+      <c r="I30" s="123"/>
+    </row>
+    <row r="31" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C31" s="107" t="s">
-        <v>610</v>
-      </c>
-      <c r="D31" s="107"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="105" t="s">
-        <v>594</v>
+        <v>506</v>
+      </c>
+      <c r="C31" s="121" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="121" t="s">
+        <v>484</v>
+      </c>
+      <c r="E31" s="106" t="s">
+        <v>614</v>
+      </c>
+      <c r="F31" s="106" t="s">
+        <v>9</v>
       </c>
       <c r="G31" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H31" s="132">
-        <v>0</v>
+      <c r="H31" s="131" t="s">
+        <v>441</v>
       </c>
       <c r="I31" s="124"/>
     </row>
-    <row r="32" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="C32" s="121" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D32" s="121" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E32" s="106" t="s">
-        <v>573</v>
-      </c>
-      <c r="F32" s="105" t="s">
-        <v>594</v>
+        <v>613</v>
+      </c>
+      <c r="F32" s="106" t="s">
+        <v>9</v>
       </c>
       <c r="G32" s="132" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="H32" s="131" t="s">
-        <v>428</v>
-      </c>
-      <c r="I32" s="123"/>
-    </row>
-    <row r="33" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+      <c r="I32" s="124"/>
+    </row>
+    <row r="33" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C33" s="121" t="s">
-        <v>439</v>
+        <v>241</v>
       </c>
       <c r="D33" s="121" t="s">
-        <v>491</v>
+        <v>460</v>
       </c>
       <c r="E33" s="106" t="s">
-        <v>597</v>
+        <v>645</v>
       </c>
       <c r="F33" s="105" t="s">
-        <v>567</v>
+        <v>583</v>
       </c>
       <c r="G33" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H33" s="130" t="s">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="I33" s="123"/>
     </row>
-    <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B34" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C34" s="121" t="s">
-        <v>440</v>
+        <v>242</v>
       </c>
       <c r="D34" s="121" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="E34" s="106" t="s">
-        <v>599</v>
-      </c>
-      <c r="F34" s="106" t="s">
-        <v>9</v>
+        <v>584</v>
+      </c>
+      <c r="F34" s="105" t="s">
+        <v>559</v>
       </c>
       <c r="G34" s="132" t="s">
         <v>418</v>
       </c>
       <c r="H34" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="I34" s="124"/>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="I34" s="123"/>
+    </row>
+    <row r="35" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B35" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C35" s="107" t="s">
-        <v>611</v>
-      </c>
-      <c r="D35" s="107"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="105" t="s">
-        <v>594</v>
+        <v>503</v>
+      </c>
+      <c r="C35" s="121" t="s">
+        <v>243</v>
+      </c>
+      <c r="D35" s="121" t="s">
+        <v>478</v>
+      </c>
+      <c r="E35" s="106" t="s">
+        <v>579</v>
+      </c>
+      <c r="F35" s="106" t="s">
+        <v>9</v>
       </c>
       <c r="G35" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H35" s="132">
-        <v>0</v>
+      <c r="H35" s="131" t="s">
+        <v>441</v>
       </c>
       <c r="I35" s="124"/>
     </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B36" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C36" s="107" t="s">
-        <v>455</v>
-      </c>
-      <c r="D36" s="121" t="s">
-        <v>504</v>
+        <v>598</v>
+      </c>
+      <c r="D36" s="107" t="s">
+        <v>471</v>
       </c>
       <c r="E36" s="106" t="s">
-        <v>600</v>
-      </c>
-      <c r="F36" s="106" t="s">
+        <v>528</v>
+      </c>
+      <c r="F36" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G36" s="132" t="s">
-        <v>464</v>
-      </c>
-      <c r="H36" s="132" t="s">
-        <v>505</v>
+        <v>418</v>
+      </c>
+      <c r="H36" s="106" t="s">
+        <v>615</v>
       </c>
       <c r="I36" s="124"/>
     </row>
-    <row r="37" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B37" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C37" s="107" t="s">
-        <v>612</v>
-      </c>
-      <c r="D37" s="107"/>
+        <v>503</v>
+      </c>
+      <c r="C37" s="121" t="s">
+        <v>436</v>
+      </c>
+      <c r="D37" s="121" t="s">
+        <v>485</v>
+      </c>
       <c r="E37" s="106" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="F37" s="105" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="G37" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H37" s="132">
-        <v>0</v>
-      </c>
-      <c r="I37" s="124"/>
-    </row>
-    <row r="38" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H37" s="131" t="s">
+        <v>428</v>
+      </c>
+      <c r="I37" s="123"/>
+    </row>
+    <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B38" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C38" s="121" t="s">
-        <v>496</v>
-      </c>
-      <c r="D38" s="107"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="105"/>
+        <v>437</v>
+      </c>
+      <c r="D38" s="121" t="s">
+        <v>486</v>
+      </c>
+      <c r="E38" s="106" t="s">
+        <v>585</v>
+      </c>
+      <c r="F38" s="105" t="s">
+        <v>559</v>
+      </c>
       <c r="G38" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H38" s="132">
-        <v>0</v>
-      </c>
-      <c r="I38" s="124"/>
-    </row>
-    <row r="39" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H38" s="130" t="s">
+        <v>445</v>
+      </c>
+      <c r="I38" s="123"/>
+    </row>
+    <row r="39" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B39" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C39" s="121" t="s">
-        <v>497</v>
-      </c>
-      <c r="D39" s="107"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="105"/>
+        <v>438</v>
+      </c>
+      <c r="D39" s="121" t="s">
+        <v>487</v>
+      </c>
+      <c r="E39" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="F39" s="106" t="s">
+        <v>9</v>
+      </c>
       <c r="G39" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H39" s="132">
-        <v>0</v>
+      <c r="H39" s="131" t="s">
+        <v>441</v>
       </c>
       <c r="I39" s="124"/>
     </row>
-    <row r="40" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B40" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C40" s="121" t="s">
-        <v>498</v>
-      </c>
-      <c r="D40" s="107"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="105"/>
+        <v>503</v>
+      </c>
+      <c r="C40" s="107" t="s">
+        <v>599</v>
+      </c>
+      <c r="D40" s="107" t="s">
+        <v>472</v>
+      </c>
+      <c r="E40" s="106" t="s">
+        <v>528</v>
+      </c>
+      <c r="F40" s="105" t="s">
+        <v>583</v>
+      </c>
       <c r="G40" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H40" s="132">
-        <v>0</v>
+      <c r="H40" s="106" t="s">
+        <v>616</v>
       </c>
       <c r="I40" s="124"/>
     </row>
-    <row r="41" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C41" s="121" t="s">
-        <v>499</v>
-      </c>
-      <c r="D41" s="107"/>
-      <c r="E41" s="106"/>
-      <c r="F41" s="105"/>
+        <v>642</v>
+      </c>
+      <c r="C41" s="107" t="s">
+        <v>653</v>
+      </c>
+      <c r="D41" s="121" t="s">
+        <v>497</v>
+      </c>
+      <c r="E41" s="106" t="s">
+        <v>588</v>
+      </c>
+      <c r="F41" s="106" t="s">
+        <v>9</v>
+      </c>
       <c r="G41" s="132" t="s">
-        <v>418</v>
-      </c>
-      <c r="H41" s="132">
-        <v>0</v>
-      </c>
-      <c r="I41" s="124"/>
-    </row>
-    <row r="42" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+        <v>459</v>
+      </c>
+      <c r="H41" s="132" t="s">
+        <v>654</v>
+      </c>
+      <c r="I41" s="124" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="C42" s="121" t="s">
-        <v>500</v>
-      </c>
-      <c r="D42" s="107"/>
-      <c r="E42" s="106"/>
-      <c r="F42" s="105"/>
+        <v>642</v>
+      </c>
+      <c r="C42" s="107" t="s">
+        <v>600</v>
+      </c>
+      <c r="D42" s="140" t="s">
+        <v>618</v>
+      </c>
+      <c r="E42" s="106" t="s">
+        <v>528</v>
+      </c>
+      <c r="F42" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G42" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H42" s="132">
-        <v>0</v>
+      <c r="H42" s="139" t="s">
+        <v>617</v>
       </c>
       <c r="I42" s="124"/>
     </row>
-    <row r="43" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>511</v>
+        <v>642</v>
       </c>
       <c r="C43" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="D43" s="107"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="105"/>
+        <v>491</v>
+      </c>
+      <c r="D43" s="107" t="s">
+        <v>643</v>
+      </c>
+      <c r="E43" s="106" t="s">
+        <v>639</v>
+      </c>
+      <c r="F43" s="105" t="s">
+        <v>222</v>
+      </c>
       <c r="G43" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H43" s="132">
-        <v>0</v>
+      <c r="H43" s="132" t="s">
+        <v>636</v>
       </c>
       <c r="I43" s="124"/>
     </row>
-    <row r="44" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>511</v>
+        <v>642</v>
       </c>
       <c r="C44" s="121" t="s">
-        <v>502</v>
-      </c>
-      <c r="D44" s="107"/>
-      <c r="E44" s="106"/>
-      <c r="F44" s="105"/>
+        <v>492</v>
+      </c>
+      <c r="D44" s="107" t="s">
+        <v>638</v>
+      </c>
+      <c r="E44" s="106" t="s">
+        <v>640</v>
+      </c>
+      <c r="F44" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G44" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H44" s="132">
-        <v>0</v>
-      </c>
-      <c r="I44" s="124"/>
-    </row>
-    <row r="45" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="H44" s="132" t="s">
+        <v>647</v>
+      </c>
+      <c r="I44" s="124" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B45" s="120" t="s">
-        <v>511</v>
+        <v>642</v>
       </c>
       <c r="C45" s="121" t="s">
-        <v>503</v>
-      </c>
-      <c r="D45" s="107"/>
-      <c r="E45" s="106"/>
-      <c r="F45" s="105"/>
+        <v>493</v>
+      </c>
+      <c r="D45" s="107" t="s">
+        <v>637</v>
+      </c>
+      <c r="E45" s="106" t="s">
+        <v>641</v>
+      </c>
+      <c r="F45" s="105" t="s">
+        <v>9</v>
+      </c>
       <c r="G45" s="132" t="s">
         <v>418</v>
       </c>
-      <c r="H45" s="132">
-        <v>0</v>
-      </c>
-      <c r="I45" s="124"/>
+      <c r="H45" s="132" t="s">
+        <v>649</v>
+      </c>
+      <c r="I45" s="124" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B46" s="120" t="s">
+        <v>642</v>
+      </c>
+      <c r="C46" s="121" t="s">
+        <v>494</v>
+      </c>
+      <c r="D46" s="107" t="s">
+        <v>651</v>
+      </c>
+      <c r="E46" s="106" t="s">
+        <v>633</v>
+      </c>
+      <c r="F46" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H46" s="132" t="s">
+        <v>428</v>
+      </c>
+      <c r="I46" s="124"/>
+    </row>
+    <row r="47" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B47" s="120" t="s">
+        <v>642</v>
+      </c>
+      <c r="C47" s="121" t="s">
+        <v>495</v>
+      </c>
+      <c r="D47" s="107" t="s">
+        <v>652</v>
+      </c>
+      <c r="E47" s="106" t="s">
+        <v>634</v>
+      </c>
+      <c r="F47" s="105" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H47" s="132" t="s">
+        <v>428</v>
+      </c>
+      <c r="I47" s="124"/>
+    </row>
+    <row r="48" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B48" s="120" t="s">
+        <v>642</v>
+      </c>
+      <c r="C48" s="121" t="s">
+        <v>496</v>
+      </c>
+      <c r="D48" s="107" t="s">
+        <v>650</v>
+      </c>
+      <c r="E48" s="139" t="s">
+        <v>635</v>
+      </c>
+      <c r="F48" s="105" t="s">
+        <v>222</v>
+      </c>
+      <c r="G48" s="132" t="s">
+        <v>418</v>
+      </c>
+      <c r="H48" s="132" t="s">
+        <v>636</v>
+      </c>
+      <c r="I48" s="124"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7832,10 +8091,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC396BB8-F45B-E549-84BB-9F4F1986BE98}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="132" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7852,16 +8111,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B1" s="115" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C1" s="115" t="s">
         <v>410</v>
       </c>
       <c r="D1" s="122" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E1" s="97" t="s">
         <v>411</v>
@@ -7884,28 +8143,28 @@
         <v>409</v>
       </c>
       <c r="B2" s="116" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C2" s="117" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D2" s="117" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E2" s="99" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="F2" s="99" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="G2" s="99" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="H2" s="110" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="I2" s="100" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -7913,28 +8172,28 @@
         <v>409</v>
       </c>
       <c r="B3" s="116" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C3" s="117" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D3" s="117" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E3" s="99" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="F3" s="99" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="G3" s="99" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H3" s="110" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I3" s="101" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -7942,28 +8201,28 @@
         <v>419</v>
       </c>
       <c r="B4" s="118" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C4" s="119" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D4" s="119" t="s">
+        <v>526</v>
+      </c>
+      <c r="E4" s="102" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G4" s="102" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="104" t="s">
         <v>534</v>
-      </c>
-      <c r="E4" s="102" t="s">
-        <v>544</v>
-      </c>
-      <c r="F4" s="102" t="s">
-        <v>561</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>461</v>
-      </c>
-      <c r="H4" s="111" t="s">
-        <v>519</v>
-      </c>
-      <c r="I4" s="104" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -7971,28 +8230,28 @@
         <v>419</v>
       </c>
       <c r="B5" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C5" s="119" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="D5" s="119" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="F5" s="102" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G5" s="102" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="H5" s="111" t="s">
         <v>429</v>
       </c>
       <c r="I5" s="104" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -8000,28 +8259,28 @@
         <v>419</v>
       </c>
       <c r="B6" s="118" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C6" s="119" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="D6" s="119" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H6" s="111" t="s">
         <v>430</v>
       </c>
       <c r="I6" s="104" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -8029,48 +8288,48 @@
         <v>419</v>
       </c>
       <c r="B7" s="118" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C7" s="119" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="D7" s="119" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H7" s="111" t="s">
         <v>428</v>
       </c>
       <c r="I7" s="104" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B8" s="120" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C8" s="121" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="D8" s="121" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="F8" s="105" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G8" s="106" t="s">
         <v>418</v>
@@ -8079,140 +8338,140 @@
         <v>427</v>
       </c>
       <c r="I8" s="123" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C9" s="121" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="E9" s="106" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="F9" s="105" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G9" s="106" t="s">
         <v>418</v>
       </c>
       <c r="H9" s="112" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="I9" s="123" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B10" s="120" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C10" s="121" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="D10" s="121" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="E10" s="106" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="F10" s="105" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G10" s="106" t="s">
         <v>418</v>
       </c>
       <c r="H10" s="112" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I10" s="123" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B11" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C11" s="121" t="s">
         <v>233</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E11" s="106" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="F11" s="105" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="G11" s="106" t="s">
         <v>418</v>
       </c>
       <c r="H11" s="112" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="I11" s="123" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B12" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C12" s="121" t="s">
         <v>235</v>
       </c>
       <c r="D12" s="121" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="E12" s="106" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="F12" s="105" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="G12" s="106" t="s">
         <v>418</v>
       </c>
       <c r="H12" s="113" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I12" s="123" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B13" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C13" s="121" t="s">
         <v>240</v>
       </c>
       <c r="D13" s="121" t="s">
+        <v>523</v>
+      </c>
+      <c r="E13" s="106" t="s">
         <v>531</v>
-      </c>
-      <c r="E13" s="106" t="s">
-        <v>539</v>
       </c>
       <c r="F13" s="106" t="s">
         <v>9</v>
@@ -8221,68 +8480,97 @@
         <v>418</v>
       </c>
       <c r="H13" s="113" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="I13" s="124" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B14" s="120" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C14" s="107" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="D14" s="107" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="106" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F14" s="105" t="s">
         <v>9</v>
       </c>
       <c r="G14" s="106" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H14" s="106" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="I14" s="124" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="120" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B15" s="120" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C15" s="121" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D15" s="121" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E15" s="106" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F15" s="106" t="s">
         <v>9</v>
       </c>
       <c r="G15" s="106" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="H15" s="113" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="I15" s="124" t="s">
-        <v>558</v>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="C16" s="121" t="s">
+        <v>656</v>
+      </c>
+      <c r="D16" s="121" t="s">
+        <v>657</v>
+      </c>
+      <c r="E16" s="106" t="s">
+        <v>658</v>
+      </c>
+      <c r="F16" s="106" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="106" t="s">
+        <v>418</v>
+      </c>
+      <c r="H16" s="113" t="s">
+        <v>659</v>
+      </c>
+      <c r="I16" s="124" t="s">
+        <v>660</v>
       </c>
     </row>
   </sheetData>
